--- a/src/Presentations/Web.ManagerApplication/wwwroot/Template/EInvoice/ReportEInvoiceMonth.xlsx
+++ b/src/Presentations/Web.ManagerApplication/wwwroot/Template/EInvoice/ReportEInvoiceMonth.xlsx
@@ -29,10 +29,6 @@
     <t>BẢNG KÊ HOÁ ĐƠN, CHỨNG TỪ HÀNG HOÁ, DỊCH VỤ BÁN RA</t>
   </si>
   <si>
-    <t>(Kèm theo tờ khai thuế GTGT theo mẫu số 01/GTGT)
-[1]Kỳ tính thuế: Tháng 05 năm 2023</t>
-  </si>
-  <si>
     <t>Mẫu số: 01- 1/GTGT
 (Ban hành kèm theo Thông tư số
 119/2014/TT-BTC ngày 25/8/2014
@@ -113,6 +109,9 @@
   </si>
   <si>
     <t>Đơn vị tiền: đồng Việt Nam</t>
+  </si>
+  <si>
+    <t>(Kèm theo tờ khai thuế GTGT theo mẫu số 01/GTGT)</t>
   </si>
 </sst>
 </file>
@@ -207,14 +206,24 @@
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -223,16 +232,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -517,7 +516,7 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,144 +532,145 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="3" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+    </row>
+    <row r="5" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-    </row>
-    <row r="5" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="I9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="10"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="B10" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>10</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="I10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="J10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="5" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="11" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="8"/>
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="D11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="E11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D2:F3"/>
-    <mergeCell ref="H1:J3"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B10:E10"/>
+  <mergeCells count="12">
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="I10:I11"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:J3"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B10:E10"/>
     <mergeCell ref="J10:J11"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
